--- a/data/tehilim-data/80.xlsx
+++ b/data/tehilim-data/80.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="268">
   <si>
     <t>original</t>
   </si>
@@ -55,61 +55,61 @@
     <t>מִזְמוֹרֽ׃</t>
   </si>
   <si>
-    <t>Псалом</t>
+    <t>Песнопение</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>רֹעֵ֣ה</t>
-  </si>
-  <si>
-    <t>Пастырь</t>
-  </si>
-  <si>
-    <t>יִשְׂרָאֵ֣ל</t>
-  </si>
-  <si>
-    <t>Израиля</t>
-  </si>
-  <si>
-    <t>הַאֲזִ֑ינָה</t>
-  </si>
-  <si>
-    <t>внемли</t>
-  </si>
-  <si>
-    <t>נֹהֵ֥ג</t>
-  </si>
-  <si>
-    <t>Ведущий</t>
-  </si>
-  <si>
-    <t>כַּצֹּ֡אן</t>
-  </si>
-  <si>
-    <t>как стадо</t>
-  </si>
-  <si>
-    <t>יוֹסֵ֗ף</t>
-  </si>
-  <si>
-    <t>Иосифа</t>
-  </si>
-  <si>
-    <t>יֹשֵׁ֣ב</t>
-  </si>
-  <si>
-    <t>Восседающий</t>
-  </si>
-  <si>
-    <t>הַכְּרוּבִ֣ים</t>
+    <t>רֹעֵה</t>
+  </si>
+  <si>
+    <t>пастух</t>
+  </si>
+  <si>
+    <t>יִשְׂרָאֵל</t>
+  </si>
+  <si>
+    <t>израиля</t>
+  </si>
+  <si>
+    <t>הַאֲזִינָה</t>
+  </si>
+  <si>
+    <t>слушай</t>
+  </si>
+  <si>
+    <t>נֹהֵג</t>
+  </si>
+  <si>
+    <t>гонящий</t>
+  </si>
+  <si>
+    <t>כַּצֹּאן</t>
+  </si>
+  <si>
+    <t>как мелкий скот</t>
+  </si>
+  <si>
+    <t>יוֹסֵף</t>
+  </si>
+  <si>
+    <t>иосиф</t>
+  </si>
+  <si>
+    <t>יֹשֵׁב</t>
+  </si>
+  <si>
+    <t>восседающий</t>
+  </si>
+  <si>
+    <t>הַכְּרוּבִים</t>
   </si>
   <si>
     <t>на херувимах</t>
   </si>
   <si>
-    <t>הֹופִֽיעָה׃</t>
+    <t>הוֹפִיעָה</t>
   </si>
   <si>
     <t>явись</t>
@@ -142,10 +142,10 @@
     <t>и Манассеем</t>
   </si>
   <si>
-    <t>עוֹרְרָ֥ה</t>
-  </si>
-  <si>
-    <t>возбуди</t>
+    <t>עוֹרְרָה</t>
+  </si>
+  <si>
+    <t>пробуди же</t>
   </si>
   <si>
     <t>גְּבוּרָתֶֽךָ אֶת־</t>
@@ -175,463 +175,451 @@
     <t>ד</t>
   </si>
   <si>
-    <t>אֱֽלֹהִים</t>
+    <t>אֱלֹהִים</t>
+  </si>
+  <si>
+    <t>бог</t>
+  </si>
+  <si>
+    <t>הֲשִׁיבֵנוּ</t>
+  </si>
+  <si>
+    <t>верни нас</t>
+  </si>
+  <si>
+    <t>וְהָאֵר</t>
+  </si>
+  <si>
+    <t>и просвети</t>
+  </si>
+  <si>
+    <t>פָּנֶיךָ</t>
+  </si>
+  <si>
+    <t>лицом твоим</t>
+  </si>
+  <si>
+    <t>וְנִוָּשֵׁעָה</t>
+  </si>
+  <si>
+    <t>и будем "избавлены"</t>
+  </si>
+  <si>
+    <t>ה</t>
+  </si>
+  <si>
+    <t>יְהוָה</t>
+  </si>
+  <si>
+    <t>хашем</t>
+  </si>
+  <si>
+    <t>צְבָאוֹת</t>
+  </si>
+  <si>
+    <t>цеваот</t>
+  </si>
+  <si>
+    <t>עַד</t>
+  </si>
+  <si>
+    <t>до</t>
+  </si>
+  <si>
+    <t>מָתַי</t>
+  </si>
+  <si>
+    <t>когда</t>
+  </si>
+  <si>
+    <t>עָשַׁנְתָּ</t>
+  </si>
+  <si>
+    <t>дымился</t>
+  </si>
+  <si>
+    <t>בִּתְפִלַּת</t>
+  </si>
+  <si>
+    <t>в молитвой</t>
+  </si>
+  <si>
+    <t>עַמֶּךָ</t>
+  </si>
+  <si>
+    <t>народа твоего</t>
+  </si>
+  <si>
+    <t>ו</t>
+  </si>
+  <si>
+    <t>הֶֽאֱכַלְתָּ֣ם</t>
+  </si>
+  <si>
+    <t>Ты питаешь их</t>
+  </si>
+  <si>
+    <t>לֶ֣חֶם</t>
+  </si>
+  <si>
+    <t>хлебом</t>
+  </si>
+  <si>
+    <t>דִּמְעָ֑ה</t>
+  </si>
+  <si>
+    <t>слез</t>
+  </si>
+  <si>
+    <t>וַ֝תַּשְׁקֵ֗מוֹ</t>
+  </si>
+  <si>
+    <t>и поишь их</t>
+  </si>
+  <si>
+    <t>בִּדְמָע֥וֹת</t>
+  </si>
+  <si>
+    <t>слезами</t>
+  </si>
+  <si>
+    <t>שָׁלִֽישׁ</t>
+  </si>
+  <si>
+    <t>обильно</t>
+  </si>
+  <si>
+    <t>ז</t>
+  </si>
+  <si>
+    <t>תְּשִׂימֵ֣נוּ</t>
+  </si>
+  <si>
+    <t>Ты сделал нас</t>
+  </si>
+  <si>
+    <t>מָד֣וֹן</t>
+  </si>
+  <si>
+    <t>предметом раздора</t>
+  </si>
+  <si>
+    <t>לִשְׁכֵנֵ֑ינוּ</t>
+  </si>
+  <si>
+    <t>для соседей наших</t>
+  </si>
+  <si>
+    <t>וְ֝אֹיְבֵ֗ינוּ</t>
+  </si>
+  <si>
+    <t>и враги наши</t>
+  </si>
+  <si>
+    <t>יִלְעֲגוּ־</t>
+  </si>
+  <si>
+    <t>насмехаются</t>
+  </si>
+  <si>
+    <t>לָֽמוֹ</t>
+  </si>
+  <si>
+    <t>нам</t>
+  </si>
+  <si>
+    <t>ח</t>
+  </si>
+  <si>
+    <t>ט</t>
+  </si>
+  <si>
+    <t>גֶּפֶן</t>
+  </si>
+  <si>
+    <t>виноградник</t>
+  </si>
+  <si>
+    <t>מִמִּצְרַיִם</t>
+  </si>
+  <si>
+    <t>из египта</t>
+  </si>
+  <si>
+    <t>תַּסִּיעַ</t>
+  </si>
+  <si>
+    <t>искоренил</t>
+  </si>
+  <si>
+    <t>תְּגוּרֵי</t>
+  </si>
+  <si>
+    <t>ты изгнал</t>
+  </si>
+  <si>
+    <t>גוֹיִם</t>
+  </si>
+  <si>
+    <t>народы</t>
+  </si>
+  <si>
+    <t>וַתִּטָּעֶהָ</t>
+  </si>
+  <si>
+    <t>и посадил</t>
+  </si>
+  <si>
+    <t>י</t>
+  </si>
+  <si>
+    <t>פִּנִּ֣יתָ</t>
+  </si>
+  <si>
+    <t>Ты расчистил</t>
+  </si>
+  <si>
+    <t>לְפָנֶ֑יהָ</t>
+  </si>
+  <si>
+    <t>перед ним</t>
+  </si>
+  <si>
+    <t>וַתַּשְׁרֵ֥שׁ</t>
+  </si>
+  <si>
+    <t>и укоренил</t>
+  </si>
+  <si>
+    <t>שָ֝רָשֶ֗יהָ</t>
+  </si>
+  <si>
+    <t>корни его</t>
+  </si>
+  <si>
+    <t>וַתְּמַלֵּא־</t>
+  </si>
+  <si>
+    <t>и наполнил</t>
+  </si>
+  <si>
+    <t>אָֽרֶץ׃</t>
+  </si>
+  <si>
+    <t>землю</t>
+  </si>
+  <si>
+    <t>יא</t>
+  </si>
+  <si>
+    <t>כִּסְּ֣וּ</t>
+  </si>
+  <si>
+    <t>Покрыли</t>
+  </si>
+  <si>
+    <t>הָרִ֣ים</t>
+  </si>
+  <si>
+    <t>горы</t>
+  </si>
+  <si>
+    <t>צִלָּ֑הּ</t>
+  </si>
+  <si>
+    <t>тенью его</t>
+  </si>
+  <si>
+    <t>וְ֝אָנְפֶ֗יהָ</t>
+  </si>
+  <si>
+    <t>и ветви его</t>
+  </si>
+  <si>
+    <t>אַרְזֵ֥י</t>
+  </si>
+  <si>
+    <t>кедры</t>
+  </si>
+  <si>
+    <t>אֵֽל׃</t>
+  </si>
+  <si>
+    <t>Божьи</t>
+  </si>
+  <si>
+    <t>יב</t>
+  </si>
+  <si>
+    <t>תְּשַׁלַּח</t>
+  </si>
+  <si>
+    <t>послал</t>
+  </si>
+  <si>
+    <t>קְצִירֶיהָ</t>
+  </si>
+  <si>
+    <t>побеги свои</t>
+  </si>
+  <si>
+    <t>יָ֑ם</t>
+  </si>
+  <si>
+    <t>моря</t>
+  </si>
+  <si>
+    <t>וְ֝אֶל־</t>
+  </si>
+  <si>
+    <t>и до</t>
+  </si>
+  <si>
+    <t>נָהָ֗ר</t>
+  </si>
+  <si>
+    <t>реки</t>
+  </si>
+  <si>
+    <t>יֽוֹנְקוֹתֶֽיהָ׃</t>
+  </si>
+  <si>
+    <t>ростки его</t>
+  </si>
+  <si>
+    <t>יג</t>
+  </si>
+  <si>
+    <t>לָמָּה</t>
+  </si>
+  <si>
+    <t>почему</t>
+  </si>
+  <si>
+    <t>פָּרַצְתָּ</t>
+  </si>
+  <si>
+    <t>разрушил</t>
+  </si>
+  <si>
+    <t>גְדֵרֶיהָ</t>
+  </si>
+  <si>
+    <t>ограды ее</t>
+  </si>
+  <si>
+    <t>וְאָרוּהָ</t>
+  </si>
+  <si>
+    <t>обгладывает</t>
+  </si>
+  <si>
+    <t>כָּל</t>
+  </si>
+  <si>
+    <t>каждый</t>
+  </si>
+  <si>
+    <t>עֹבְרֵי</t>
+  </si>
+  <si>
+    <t>прохожий</t>
+  </si>
+  <si>
+    <t>דֶּרֶךְ</t>
+  </si>
+  <si>
+    <t>дорог</t>
+  </si>
+  <si>
+    <t>יד</t>
+  </si>
+  <si>
+    <t>יְכַרְסְמֶנָּה</t>
+  </si>
+  <si>
+    <t>грызет ее</t>
+  </si>
+  <si>
+    <t>חֲזִיר</t>
+  </si>
+  <si>
+    <t>кабан</t>
+  </si>
+  <si>
+    <t>מִיַּעַר</t>
+  </si>
+  <si>
+    <t>из леса</t>
+  </si>
+  <si>
+    <t>וְזִיז</t>
+  </si>
+  <si>
+    <t>зверь</t>
+  </si>
+  <si>
+    <t>שָׂדַי</t>
+  </si>
+  <si>
+    <t>поля</t>
+  </si>
+  <si>
+    <t>יִרְעֶנָּה</t>
+  </si>
+  <si>
+    <t>поедает ее</t>
+  </si>
+  <si>
+    <t>טו</t>
+  </si>
+  <si>
+    <t>אֱֽלֹהִ֤ים</t>
   </si>
   <si>
     <t>Боже</t>
   </si>
   <si>
-    <t>הֲשִׁיבֵ֣נוּ</t>
-  </si>
-  <si>
-    <t>восстанови нас</t>
-  </si>
-  <si>
-    <t>וְהָאֵ֥ר</t>
-  </si>
-  <si>
-    <t>и освети</t>
-  </si>
-  <si>
-    <t>פָּנֶ֗יךָ</t>
-  </si>
-  <si>
-    <t>лицо Твое</t>
-  </si>
-  <si>
-    <t>וְנִוָּשֵֽׁעָה</t>
-  </si>
-  <si>
-    <t>и спасемся</t>
-  </si>
-  <si>
-    <t>ה</t>
-  </si>
-  <si>
-    <t>יְהוָ֣ה</t>
-  </si>
-  <si>
-    <t>Господи</t>
-  </si>
-  <si>
-    <t>אֱלֹהִ֣ים</t>
-  </si>
-  <si>
-    <t>Бог</t>
-  </si>
-  <si>
-    <t>צְבָא֑וֹת</t>
-  </si>
-  <si>
-    <t>Саваоф</t>
-  </si>
-  <si>
-    <t>עַד־</t>
-  </si>
-  <si>
-    <t>до каких пор</t>
-  </si>
-  <si>
-    <t>מָֽתַי</t>
-  </si>
-  <si>
-    <t>תֶּעֱשַׁ֥ן</t>
-  </si>
-  <si>
-    <t>Ты будешь гневаться</t>
-  </si>
-  <si>
-    <t>בִּתְפִלַּ֖ת</t>
-  </si>
-  <si>
-    <t>на молитвы</t>
-  </si>
-  <si>
-    <t>עַמֶּ֣ךָ</t>
-  </si>
-  <si>
-    <t>народа Твоего</t>
-  </si>
-  <si>
-    <t>ו</t>
-  </si>
-  <si>
-    <t>הֶֽאֱכַלְתָּ֣ם</t>
-  </si>
-  <si>
-    <t>Ты питаешь их</t>
-  </si>
-  <si>
-    <t>לֶ֣חֶם</t>
-  </si>
-  <si>
-    <t>хлебом</t>
-  </si>
-  <si>
-    <t>דִּמְעָ֑ה</t>
-  </si>
-  <si>
-    <t>слез</t>
-  </si>
-  <si>
-    <t>וַ֝תַּשְׁקֵ֗מוֹ</t>
-  </si>
-  <si>
-    <t>и поишь их</t>
-  </si>
-  <si>
-    <t>בִּדְמָע֥וֹת</t>
-  </si>
-  <si>
-    <t>слезами</t>
-  </si>
-  <si>
-    <t>שָׁלִֽישׁ</t>
-  </si>
-  <si>
-    <t>обильно</t>
-  </si>
-  <si>
-    <t>ז</t>
-  </si>
-  <si>
-    <t>תְּשִׂימֵ֣נוּ</t>
-  </si>
-  <si>
-    <t>Ты сделал нас</t>
-  </si>
-  <si>
-    <t>מָד֣וֹן</t>
-  </si>
-  <si>
-    <t>предметом раздора</t>
-  </si>
-  <si>
-    <t>לִשְׁכֵנֵ֑ינוּ</t>
-  </si>
-  <si>
-    <t>для соседей наших</t>
-  </si>
-  <si>
-    <t>וְ֝אֹיְבֵ֗ינוּ</t>
-  </si>
-  <si>
-    <t>и враги наши</t>
-  </si>
-  <si>
-    <t>יִלְעֲגוּ־</t>
-  </si>
-  <si>
-    <t>насмехаются</t>
-  </si>
-  <si>
-    <t>לָֽמוֹ</t>
-  </si>
-  <si>
-    <t>нам</t>
-  </si>
-  <si>
-    <t>ח</t>
-  </si>
-  <si>
-    <t>אֱֽלֹהִ֥ים</t>
-  </si>
-  <si>
-    <t>ט</t>
-  </si>
-  <si>
-    <t>גֶּ֤פֶן</t>
-  </si>
-  <si>
-    <t>Виноградник</t>
-  </si>
-  <si>
-    <t>מִמִּצְרַ֨יִם</t>
-  </si>
-  <si>
-    <t>из Египта</t>
-  </si>
-  <si>
-    <t>תַּסִּ֗יעַ</t>
-  </si>
-  <si>
-    <t>перенес</t>
-  </si>
-  <si>
-    <t>תְּגָרֵ֥שׁ</t>
-  </si>
-  <si>
-    <t>Ты изгнал</t>
-  </si>
-  <si>
-    <t>גּ֑וֹיִם</t>
-  </si>
-  <si>
-    <t>народы</t>
-  </si>
-  <si>
-    <t>וַתִּטָּעֶֽהָ׃</t>
-  </si>
-  <si>
-    <t>и насадил его</t>
-  </si>
-  <si>
-    <t>י</t>
-  </si>
-  <si>
-    <t>פִּנִּ֣יתָ</t>
-  </si>
-  <si>
-    <t>Ты расчистил</t>
-  </si>
-  <si>
-    <t>לְפָנֶ֑יהָ</t>
-  </si>
-  <si>
-    <t>перед ним</t>
-  </si>
-  <si>
-    <t>וַתַּשְׁרֵ֥שׁ</t>
-  </si>
-  <si>
-    <t>и укоренил</t>
-  </si>
-  <si>
-    <t>שָ֝רָשֶ֗יהָ</t>
-  </si>
-  <si>
-    <t>корни его</t>
-  </si>
-  <si>
-    <t>וַתְּמַלֵּא־</t>
-  </si>
-  <si>
-    <t>и наполнил</t>
-  </si>
-  <si>
-    <t>אָֽרֶץ׃</t>
-  </si>
-  <si>
-    <t>землю</t>
-  </si>
-  <si>
-    <t>יא</t>
-  </si>
-  <si>
-    <t>כִּסְּ֣וּ</t>
-  </si>
-  <si>
-    <t>Покрыли</t>
-  </si>
-  <si>
-    <t>הָרִ֣ים</t>
-  </si>
-  <si>
-    <t>горы</t>
-  </si>
-  <si>
-    <t>צִלָּ֑הּ</t>
-  </si>
-  <si>
-    <t>тенью его</t>
-  </si>
-  <si>
-    <t>וְ֝אָנְפֶ֗יהָ</t>
-  </si>
-  <si>
-    <t>и ветви его</t>
-  </si>
-  <si>
-    <t>אַרְזֵ֥י</t>
-  </si>
-  <si>
-    <t>кедры</t>
-  </si>
-  <si>
-    <t>אֵֽל׃</t>
-  </si>
-  <si>
-    <t>Божьи</t>
-  </si>
-  <si>
-    <t>יב</t>
-  </si>
-  <si>
-    <t>תְּשַׁלַּ֣ח</t>
-  </si>
-  <si>
-    <t>Простирались</t>
-  </si>
-  <si>
-    <t>קְצִירֶ֣הָ</t>
-  </si>
-  <si>
-    <t>Ветви его</t>
-  </si>
-  <si>
-    <t>до</t>
-  </si>
-  <si>
-    <t>יָ֑ם</t>
-  </si>
-  <si>
-    <t>моря</t>
-  </si>
-  <si>
-    <t>וְ֝אֶל־</t>
-  </si>
-  <si>
-    <t>и до</t>
-  </si>
-  <si>
-    <t>נָהָ֗ר</t>
-  </si>
-  <si>
-    <t>реки</t>
-  </si>
-  <si>
-    <t>יֽוֹנְקוֹתֶֽיהָ׃</t>
-  </si>
-  <si>
-    <t>отростки его</t>
-  </si>
-  <si>
-    <t>יג</t>
-  </si>
-  <si>
-    <t>לָ֤מָּה</t>
-  </si>
-  <si>
-    <t>Почему</t>
-  </si>
-  <si>
-    <t>פֵֽרַ֣צְתָּ</t>
-  </si>
-  <si>
-    <t>Ты разрушил</t>
-  </si>
-  <si>
-    <t>גְדֵרֶ֣יהָ</t>
-  </si>
-  <si>
-    <t>ограды его</t>
-  </si>
-  <si>
-    <t>וְֽאָרֲוּ֗הּ</t>
-  </si>
-  <si>
-    <t>и обрывают</t>
-  </si>
-  <si>
-    <t>כָּל־</t>
-  </si>
-  <si>
-    <t>все</t>
-  </si>
-  <si>
-    <t>עֹבְרֵי</t>
-  </si>
-  <si>
-    <t>проходящие</t>
-  </si>
-  <si>
-    <t>דָֽרֶךְ</t>
-  </si>
-  <si>
-    <t>по дороге</t>
-  </si>
-  <si>
-    <t>יד</t>
-  </si>
-  <si>
-    <t>יְכַרְסְמֶ֣נָּה</t>
-  </si>
-  <si>
-    <t>Грызет его</t>
-  </si>
-  <si>
-    <t>חֲזִ֣יר</t>
-  </si>
-  <si>
-    <t>вепрь</t>
-  </si>
-  <si>
-    <t>מִֽיָּ֑עַר</t>
-  </si>
-  <si>
-    <t>из леса</t>
-  </si>
-  <si>
-    <t>וְ֝זִיז־</t>
-  </si>
-  <si>
-    <t>и зверь</t>
-  </si>
-  <si>
-    <t>שָׂדַ֗י</t>
-  </si>
-  <si>
-    <t>полевой</t>
-  </si>
-  <si>
-    <t>יִרְעֶֽנָּה׃</t>
-  </si>
-  <si>
-    <t>кормится им</t>
-  </si>
-  <si>
-    <t>טו</t>
-  </si>
-  <si>
-    <t>אֱֽלֹהִ֤ים</t>
-  </si>
-  <si>
-    <t>צְבָא֨וֹת</t>
-  </si>
-  <si>
-    <t>שֽׁוּב־</t>
-  </si>
-  <si>
-    <t>Возвратись</t>
-  </si>
-  <si>
-    <t>נָ֘א</t>
+    <t>Цеваот</t>
+  </si>
+  <si>
+    <t>שׁוּב</t>
+  </si>
+  <si>
+    <t>возвратись</t>
+  </si>
+  <si>
+    <t>נָא</t>
   </si>
   <si>
     <t>пожалуйста</t>
   </si>
   <si>
-    <t>הַבֵּ֣ט</t>
-  </si>
-  <si>
-    <t>воззри</t>
-  </si>
-  <si>
-    <t>מִשָּׁמַ֣יִם</t>
+    <t>הַבֵּט</t>
+  </si>
+  <si>
+    <t>взгляни</t>
+  </si>
+  <si>
+    <t>מִשָּׁמַיִם</t>
   </si>
   <si>
     <t>с небес</t>
   </si>
   <si>
-    <t>וּ֭רְאֵה</t>
-  </si>
-  <si>
-    <t>и посмотри</t>
-  </si>
-  <si>
-    <t>וּֽפְקֹ֣ד</t>
-  </si>
-  <si>
-    <t>и посети</t>
-  </si>
-  <si>
-    <t>גֶּֽפֶן־</t>
-  </si>
-  <si>
-    <t>виноградник</t>
-  </si>
-  <si>
-    <t>זֹּֽאת׃</t>
+    <t>וּרְאֵה</t>
+  </si>
+  <si>
+    <t>и увидь</t>
+  </si>
+  <si>
+    <t>וּפְקֹד</t>
+  </si>
+  <si>
+    <t>и вспомни</t>
+  </si>
+  <si>
+    <t>זֹּאת</t>
   </si>
   <si>
     <t>этот</t>
@@ -640,42 +628,132 @@
     <t>טז</t>
   </si>
   <si>
-    <t>וְ֭כַנָּה</t>
-  </si>
-  <si>
-    <t>И лозу</t>
-  </si>
-  <si>
-    <t>אֲשֶׁר־</t>
-  </si>
-  <si>
-    <t>которую</t>
-  </si>
-  <si>
-    <t>נָטְעָ֣ה</t>
+    <t>וְכַנָּה</t>
+  </si>
+  <si>
+    <t>и место</t>
+  </si>
+  <si>
+    <t>אֲשֶׁר</t>
+  </si>
+  <si>
+    <t>которое</t>
+  </si>
+  <si>
+    <t>נָטְעָה</t>
   </si>
   <si>
     <t>насадила</t>
   </si>
   <si>
-    <t>יְמִינֶ֑ךָ</t>
-  </si>
-  <si>
-    <t>десница Твоя</t>
-  </si>
-  <si>
-    <t>וְעַ֥ל</t>
+    <t>יְמִינֶךָ</t>
+  </si>
+  <si>
+    <t>правая рука твоя</t>
+  </si>
+  <si>
+    <t>וְעַל</t>
   </si>
   <si>
     <t>и на</t>
   </si>
   <si>
-    <t>בֵּ֝֗ן</t>
+    <t>בֵּן</t>
+  </si>
+  <si>
+    <t>сын</t>
+  </si>
+  <si>
+    <t>אִמַּצְתָּ</t>
+  </si>
+  <si>
+    <t>укрепил</t>
+  </si>
+  <si>
+    <t>לָךְ</t>
+  </si>
+  <si>
+    <t>тебе</t>
+  </si>
+  <si>
+    <t>יז</t>
+  </si>
+  <si>
+    <t>שְׂרֻפָ֥ה</t>
+  </si>
+  <si>
+    <t>Она сожжена</t>
+  </si>
+  <si>
+    <t>בָאֵ֑שׁ</t>
+  </si>
+  <si>
+    <t>огнем</t>
+  </si>
+  <si>
+    <t>כְּסוּחָ֥ה</t>
+  </si>
+  <si>
+    <t>она срезана</t>
+  </si>
+  <si>
+    <t>מִֽגַּעֲרַ֥ת</t>
+  </si>
+  <si>
+    <t>от прещения</t>
+  </si>
+  <si>
+    <t>פָּנֶֽיךָ</t>
+  </si>
+  <si>
+    <t>лица Твоего</t>
+  </si>
+  <si>
+    <t>יֹאבֵֽדוּ</t>
+  </si>
+  <si>
+    <t>они погибнут</t>
+  </si>
+  <si>
+    <t>יח</t>
+  </si>
+  <si>
+    <t>תְּהִֽי־</t>
+  </si>
+  <si>
+    <t>Да будет</t>
+  </si>
+  <si>
+    <t>יָֽדְךָ֤</t>
+  </si>
+  <si>
+    <t>рука Твоя</t>
+  </si>
+  <si>
+    <t>אִ֥ישׁ</t>
+  </si>
+  <si>
+    <t>мужа</t>
+  </si>
+  <si>
+    <t>יְמִינֶ֗ךָ</t>
+  </si>
+  <si>
+    <t>десницы Твоей</t>
+  </si>
+  <si>
+    <t>בֶּן־</t>
   </si>
   <si>
     <t>сына</t>
   </si>
   <si>
+    <t>אָדָֽם</t>
+  </si>
+  <si>
+    <t>человеческого</t>
+  </si>
+  <si>
     <t>אִמַּ֥צְתָּ</t>
   </si>
   <si>
@@ -688,142 +766,77 @@
     <t>для себя</t>
   </si>
   <si>
-    <t>יז</t>
-  </si>
-  <si>
-    <t>שְׂרֻפָ֥ה</t>
-  </si>
-  <si>
-    <t>Она сожжена</t>
-  </si>
-  <si>
-    <t>בָאֵ֑שׁ</t>
-  </si>
-  <si>
-    <t>огнем</t>
-  </si>
-  <si>
-    <t>כְּסוּחָ֥ה</t>
-  </si>
-  <si>
-    <t>она срезана</t>
-  </si>
-  <si>
-    <t>מִֽגַּעֲרַ֥ת</t>
-  </si>
-  <si>
-    <t>от прещения</t>
-  </si>
-  <si>
-    <t>פָּנֶֽיךָ</t>
-  </si>
-  <si>
-    <t>лица Твоего</t>
-  </si>
-  <si>
-    <t>יֹאבֵֽדוּ</t>
-  </si>
-  <si>
-    <t>они погибнут</t>
-  </si>
-  <si>
-    <t>יח</t>
-  </si>
-  <si>
-    <t>תְּהִֽי־</t>
-  </si>
-  <si>
-    <t>Да будет</t>
-  </si>
-  <si>
-    <t>יָֽדְךָ֤</t>
-  </si>
-  <si>
-    <t>рука Твоя</t>
-  </si>
-  <si>
-    <t>אִ֥ישׁ</t>
-  </si>
-  <si>
-    <t>мужа</t>
-  </si>
-  <si>
-    <t>יְמִינֶ֗ךָ</t>
-  </si>
-  <si>
-    <t>десницы Твоей</t>
-  </si>
-  <si>
-    <t>בֶּן־</t>
-  </si>
-  <si>
-    <t>אָדָֽם</t>
-  </si>
-  <si>
-    <t>человеческого</t>
-  </si>
-  <si>
     <t>יט</t>
   </si>
   <si>
-    <t>וְֽלֹא־</t>
-  </si>
-  <si>
-    <t>И не</t>
-  </si>
-  <si>
-    <t>נָס֣וֹג</t>
-  </si>
-  <si>
-    <t>отступим</t>
-  </si>
-  <si>
-    <t>מִמֶּ֑ךָ</t>
-  </si>
-  <si>
-    <t>от Тебя</t>
-  </si>
-  <si>
-    <t>תְּ֝חַיֵּ֗נוּ</t>
+    <t>וְלֹא</t>
+  </si>
+  <si>
+    <t>и не</t>
+  </si>
+  <si>
+    <t>נָסוֹג</t>
+  </si>
+  <si>
+    <t>отступит</t>
+  </si>
+  <si>
+    <t>מִמֶּךָ</t>
+  </si>
+  <si>
+    <t>от тебя</t>
+  </si>
+  <si>
+    <t>תְּחַיֵּנוּ</t>
   </si>
   <si>
     <t>оживи нас</t>
   </si>
   <si>
-    <t>וּבְשִׁמְךָ֥</t>
-  </si>
-  <si>
-    <t>и именем Твоим</t>
-  </si>
-  <si>
-    <t>נִקְרָֽא</t>
-  </si>
-  <si>
-    <t>будем призывать</t>
+    <t>וּבְשִׁמְךָ</t>
+  </si>
+  <si>
+    <t>и именем твоим</t>
+  </si>
+  <si>
+    <t>נִקְרָא</t>
+  </si>
+  <si>
+    <t>воззовем</t>
   </si>
   <si>
     <t>כ</t>
   </si>
   <si>
-    <t>אֱ֭לֹהִים</t>
-  </si>
-  <si>
-    <t>הָאֵ֥ר</t>
-  </si>
-  <si>
-    <t>освети</t>
+    <t>הָאֵר</t>
+  </si>
+  <si>
+    <t>просвети</t>
+  </si>
+  <si>
+    <t>и будем спасены</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -844,20 +857,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1147,74 +1166,74 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1259,10 +1278,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1307,42 +1326,42 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1355,70 +1374,72 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
+    <row r="39">
+      <c r="A39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
+    <row r="40">
+      <c r="A40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="s">
+    <row r="41">
+      <c r="A41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="3" t="s">
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="3" t="s">
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3">
         <v>6.0</v>
@@ -1426,55 +1447,55 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="3">
         <v>7.0</v>
@@ -1482,167 +1503,167 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" s="3">
         <v>8.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>70</v>
+      <c r="A60" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B65" s="3">
         <v>9.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
+    <row r="68">
+      <c r="A68" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
+    <row r="69">
+      <c r="A69" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
+    <row r="70">
+      <c r="A70" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
+    <row r="71">
+      <c r="A71" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="5" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B72" s="3">
         <v>10.0</v>
@@ -1650,55 +1671,55 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B79" s="3">
         <v>11.0</v>
@@ -1706,239 +1727,239 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B86" s="3">
         <v>12.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="89">
-      <c r="A89" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>152</v>
+      <c r="A89" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B94" s="3">
         <v>13.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B95" s="3" t="s">
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
+      <c r="B97" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B96" s="3" t="s">
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="s">
+      <c r="B98" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B97" s="3" t="s">
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="B99" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B98" s="3" t="s">
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
+      <c r="B100" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="3" t="s">
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="s">
+      <c r="B101" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B102" s="3">
         <v>14.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B103" s="3" t="s">
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="s">
+      <c r="B105" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B104" s="3" t="s">
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="s">
+      <c r="B106" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B105" s="3" t="s">
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="s">
+      <c r="B107" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B106" s="3" t="s">
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="s">
+      <c r="B108" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B109" s="3">
         <v>15.0</v>
@@ -1946,159 +1967,159 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
+      <c r="B112" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B113" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="s">
+    <row r="114">
+      <c r="A114" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B114" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="s">
+    <row r="115">
+      <c r="A115" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B115" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="s">
+    <row r="116">
+      <c r="A116" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B116" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="s">
+    <row r="117">
+      <c r="A117" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B117" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
+    <row r="118">
+      <c r="A118" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B119" s="5" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B120" s="3">
         <v>16.0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B123" s="5" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
+    <row r="124">
+      <c r="A124" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B124" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
+    <row r="125">
+      <c r="A125" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B125" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
+    <row r="126">
+      <c r="A126" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B126" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
+    <row r="127">
+      <c r="A127" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B127" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
+    <row r="128">
+      <c r="A128" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B128" s="5" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B129" s="3">
         <v>17.0</v>
@@ -2106,55 +2127,55 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B136" s="3">
         <v>18.0</v>
@@ -2162,18 +2183,18 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139">
@@ -2186,18 +2207,18 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142">
@@ -2210,159 +2231,159 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B147" s="3">
         <v>19.0</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B148" s="3" t="s">
+      <c r="A148" s="4" t="s">
         <v>252</v>
       </c>
+      <c r="B148" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B149" s="3" t="s">
+      <c r="A149" s="4" t="s">
         <v>254</v>
       </c>
+      <c r="B149" s="5" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B150" s="3" t="s">
+      <c r="A150" s="4" t="s">
         <v>256</v>
       </c>
+      <c r="B150" s="5" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B151" s="3" t="s">
+      <c r="A151" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="B151" s="5" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B152" s="3" t="s">
+      <c r="A152" s="4" t="s">
         <v>260</v>
       </c>
+      <c r="B152" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="A153" s="4" t="s">
         <v>262</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B154" s="3">
         <v>20.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B156" s="3" t="s">
+      <c r="A156" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>70</v>
+      <c r="A157" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>63</v>
+      <c r="B161" s="5" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
